--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H2">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N2">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O2">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P2">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q2">
-        <v>192.3054274631562</v>
+        <v>310.0691317218073</v>
       </c>
       <c r="R2">
-        <v>1730.748847168406</v>
+        <v>2790.622185496266</v>
       </c>
       <c r="S2">
-        <v>0.01574098268024866</v>
+        <v>0.08796693860846805</v>
       </c>
       <c r="T2">
-        <v>0.01574098268024867</v>
+        <v>0.08796693860846808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H3">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>85.551776</v>
       </c>
       <c r="O3">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P3">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q3">
-        <v>486.3262380096783</v>
+        <v>439.3619631947875</v>
       </c>
       <c r="R3">
-        <v>4376.936142087105</v>
+        <v>3954.257668753088</v>
       </c>
       <c r="S3">
-        <v>0.03980778384909341</v>
+        <v>0.1246474508076085</v>
       </c>
       <c r="T3">
-        <v>0.03980778384909341</v>
+        <v>0.1246474508076086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H4">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N4">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O4">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P4">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q4">
-        <v>90.88818942976734</v>
+        <v>67.98565397474555</v>
       </c>
       <c r="R4">
-        <v>817.9937048679061</v>
+        <v>611.8708857727099</v>
       </c>
       <c r="S4">
-        <v>0.00743956857862074</v>
+        <v>0.01928760149790939</v>
       </c>
       <c r="T4">
-        <v>0.007439568578620741</v>
+        <v>0.01928760149790939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H5">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N5">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O5">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P5">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q5">
-        <v>3353.337988538352</v>
+        <v>475.2030328085589</v>
       </c>
       <c r="R5">
-        <v>30180.04189684517</v>
+        <v>4276.827295277029</v>
       </c>
       <c r="S5">
-        <v>0.2744843756878111</v>
+        <v>0.1348155999325113</v>
       </c>
       <c r="T5">
-        <v>0.2744843756878112</v>
+        <v>0.1348155999325114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H6">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N6">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O6">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P6">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q6">
-        <v>57.22985415030178</v>
+        <v>52.75350405993155</v>
       </c>
       <c r="R6">
-        <v>515.068687352716</v>
+        <v>474.781536539384</v>
       </c>
       <c r="S6">
-        <v>0.004684496713675186</v>
+        <v>0.01496622455531969</v>
       </c>
       <c r="T6">
-        <v>0.004684496713675186</v>
+        <v>0.0149662245553197</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H7">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I7">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J7">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N7">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O7">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P7">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q7">
-        <v>97.38565163401599</v>
+        <v>114.5939085162664</v>
       </c>
       <c r="R7">
-        <v>876.470864706144</v>
+        <v>1031.345176646398</v>
       </c>
       <c r="S7">
-        <v>0.00797141233036427</v>
+        <v>0.03251041230508225</v>
       </c>
       <c r="T7">
-        <v>0.007971412330364271</v>
+        <v>0.03251041230508226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J8">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N8">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O8">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P8">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q8">
-        <v>34.24671611459078</v>
+        <v>61.12110120118568</v>
       </c>
       <c r="R8">
-        <v>308.220445031317</v>
+        <v>550.0899108106711</v>
       </c>
       <c r="S8">
-        <v>0.002803233233333718</v>
+        <v>0.01734012066015832</v>
       </c>
       <c r="T8">
-        <v>0.002803233233333718</v>
+        <v>0.01734012066015833</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J9">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>85.551776</v>
       </c>
       <c r="O9">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P9">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q9">
         <v>86.60741837556978</v>
@@ -1013,10 +1013,10 @@
         <v>779.4667653801281</v>
       </c>
       <c r="S9">
-        <v>0.007089170028194266</v>
+        <v>0.02457061563328084</v>
       </c>
       <c r="T9">
-        <v>0.007089170028194265</v>
+        <v>0.02457061563328085</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J10">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N10">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O10">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P10">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q10">
-        <v>16.18582513572967</v>
+        <v>13.40139217904278</v>
       </c>
       <c r="R10">
-        <v>145.672426221567</v>
+        <v>120.612529611385</v>
       </c>
       <c r="S10">
-        <v>0.001324875727575955</v>
+        <v>0.003801989048492404</v>
       </c>
       <c r="T10">
-        <v>0.001324875727575955</v>
+        <v>0.003801989048492405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J11">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N11">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O11">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P11">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q11">
-        <v>597.1792665693129</v>
+        <v>93.67244168458946</v>
       </c>
       <c r="R11">
-        <v>5374.613399123815</v>
+        <v>843.0519751613051</v>
       </c>
       <c r="S11">
-        <v>0.04888155584621829</v>
+        <v>0.0265749701726728</v>
       </c>
       <c r="T11">
-        <v>0.04888155584621828</v>
+        <v>0.02657497017267281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J12">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N12">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O12">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P12">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q12">
-        <v>10.19177978604022</v>
+        <v>10.39881732973378</v>
       </c>
       <c r="R12">
-        <v>91.726018074362</v>
+        <v>93.58935596760401</v>
       </c>
       <c r="S12">
-        <v>0.0008342386962723871</v>
+        <v>0.002950155407491762</v>
       </c>
       <c r="T12">
-        <v>0.0008342386962723869</v>
+        <v>0.002950155407491762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J13">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N13">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O13">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P13">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q13">
-        <v>17.342925829712</v>
+        <v>22.58885249417922</v>
       </c>
       <c r="R13">
-        <v>156.086332467408</v>
+        <v>203.299672447613</v>
       </c>
       <c r="S13">
-        <v>0.001419589133346934</v>
+        <v>0.006408481197586598</v>
       </c>
       <c r="T13">
-        <v>0.001419589133346934</v>
+        <v>0.0064084811975866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H14">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N14">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O14">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P14">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q14">
-        <v>55.87805058032456</v>
+        <v>66.69600283405033</v>
       </c>
       <c r="R14">
-        <v>502.902455222921</v>
+        <v>600.264025506453</v>
       </c>
       <c r="S14">
-        <v>0.004573846084294554</v>
+        <v>0.0189217261136365</v>
       </c>
       <c r="T14">
-        <v>0.004573846084294555</v>
+        <v>0.01892172611363651</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H15">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>85.551776</v>
       </c>
       <c r="O15">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P15">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q15">
-        <v>141.3114673076516</v>
+        <v>94.50694617581155</v>
       </c>
       <c r="R15">
-        <v>1271.803205768864</v>
+        <v>850.5625155823041</v>
       </c>
       <c r="S15">
-        <v>0.01156691929475801</v>
+        <v>0.02681171997404835</v>
       </c>
       <c r="T15">
-        <v>0.01156691929475801</v>
+        <v>0.02681171997404836</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H16">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N16">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O16">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P16">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q16">
-        <v>26.40931622735233</v>
+        <v>14.62374324395056</v>
       </c>
       <c r="R16">
-        <v>237.683846046171</v>
+        <v>131.613689195555</v>
       </c>
       <c r="S16">
-        <v>0.002161710123400488</v>
+        <v>0.004148771330519788</v>
       </c>
       <c r="T16">
-        <v>0.002161710123400488</v>
+        <v>0.004148771330519789</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H17">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I17">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J17">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N17">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O17">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P17">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q17">
-        <v>974.3770220545107</v>
+        <v>102.2163755771239</v>
       </c>
       <c r="R17">
-        <v>8769.393198490596</v>
+        <v>919.947380194115</v>
       </c>
       <c r="S17">
-        <v>0.07975672881687575</v>
+        <v>0.02899889319921162</v>
       </c>
       <c r="T17">
-        <v>0.07975672881687575</v>
+        <v>0.02899889319921163</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H18">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I18">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J18">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N18">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O18">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P18">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q18">
-        <v>16.62923780727845</v>
+        <v>11.34730128326356</v>
       </c>
       <c r="R18">
-        <v>149.663140265506</v>
+        <v>102.125711549372</v>
       </c>
       <c r="S18">
-        <v>0.001361170861182568</v>
+        <v>0.003219241302137116</v>
       </c>
       <c r="T18">
-        <v>0.001361170861182568</v>
+        <v>0.003219241302137118</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H19">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I19">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J19">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N19">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O19">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P19">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q19">
-        <v>28.297279175056</v>
+        <v>24.64919872779544</v>
       </c>
       <c r="R19">
-        <v>254.675512575504</v>
+        <v>221.842788550159</v>
       </c>
       <c r="S19">
-        <v>0.00231624758213367</v>
+        <v>0.006993003589861738</v>
       </c>
       <c r="T19">
-        <v>0.00231624758213367</v>
+        <v>0.00699300358986174</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H20">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N20">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O20">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P20">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q20">
-        <v>142.138798297561</v>
+        <v>127.2642266065244</v>
       </c>
       <c r="R20">
-        <v>1279.249184678049</v>
+        <v>1145.378039458719</v>
       </c>
       <c r="S20">
-        <v>0.01163463970678586</v>
+        <v>0.0361049948660947</v>
       </c>
       <c r="T20">
-        <v>0.01163463970678586</v>
+        <v>0.0361049948660947</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H21">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>85.551776</v>
       </c>
       <c r="O21">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P21">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q21">
-        <v>359.458534078624</v>
+        <v>180.3309479270436</v>
       </c>
       <c r="R21">
-        <v>3235.126806707616</v>
+        <v>1622.978531343392</v>
       </c>
       <c r="S21">
-        <v>0.02942314542985665</v>
+        <v>0.05116007948749136</v>
       </c>
       <c r="T21">
-        <v>0.02942314542985664</v>
+        <v>0.05116007948749138</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H22">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I22">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J22">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N22">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O22">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P22">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q22">
-        <v>67.17822890081099</v>
+        <v>27.90391170314056</v>
       </c>
       <c r="R22">
-        <v>604.604060107299</v>
+        <v>251.135205328265</v>
       </c>
       <c r="S22">
-        <v>0.005498811716169805</v>
+        <v>0.007916369082261804</v>
       </c>
       <c r="T22">
-        <v>0.005498811716169805</v>
+        <v>0.007916369082261808</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H23">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I23">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J23">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N23">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O23">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P23">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q23">
-        <v>2478.554236685395</v>
+        <v>195.0414932167939</v>
       </c>
       <c r="R23">
-        <v>22306.98813016856</v>
+        <v>1755.373438951145</v>
       </c>
       <c r="S23">
-        <v>0.2028797617747768</v>
+        <v>0.05533347664964926</v>
       </c>
       <c r="T23">
-        <v>0.2028797617747768</v>
+        <v>0.05533347664964928</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H24">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I24">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J24">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N24">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O24">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P24">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q24">
-        <v>42.300328196546</v>
+        <v>21.65205500363956</v>
       </c>
       <c r="R24">
-        <v>380.702953768914</v>
+        <v>194.868495032756</v>
       </c>
       <c r="S24">
-        <v>0.003462454192241842</v>
+        <v>0.006142710764776133</v>
       </c>
       <c r="T24">
-        <v>0.003462454192241842</v>
+        <v>0.006142710764776135</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H25">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I25">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J25">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N25">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O25">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P25">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q25">
-        <v>71.98070110286399</v>
+        <v>47.03372135161745</v>
       </c>
       <c r="R25">
-        <v>647.8263099257759</v>
+        <v>423.303492164557</v>
       </c>
       <c r="S25">
-        <v>0.005891913630931805</v>
+        <v>0.01334351618844017</v>
       </c>
       <c r="T25">
-        <v>0.005891913630931805</v>
+        <v>0.01334351618844018</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H26">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N26">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O26">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P26">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q26">
-        <v>58.17604411161545</v>
+        <v>154.426746174822</v>
       </c>
       <c r="R26">
-        <v>523.584397004539</v>
+        <v>1389.840715573398</v>
       </c>
       <c r="S26">
-        <v>0.004761946216737793</v>
+        <v>0.04381103022036374</v>
       </c>
       <c r="T26">
-        <v>0.004761946216737794</v>
+        <v>0.04381103022036376</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H27">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I27">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J27">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>85.551776</v>
       </c>
       <c r="O27">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P27">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q27">
-        <v>147.1229234053085</v>
+        <v>218.819712856896</v>
       </c>
       <c r="R27">
-        <v>1324.106310647776</v>
+        <v>1969.377415712064</v>
       </c>
       <c r="S27">
-        <v>0.01204261065192352</v>
+        <v>0.06207938255677514</v>
       </c>
       <c r="T27">
-        <v>0.01204261065192352</v>
+        <v>0.06207938255677516</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H28">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I28">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J28">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N28">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O28">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P28">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q28">
-        <v>27.49540346958766</v>
+        <v>33.85955664657001</v>
       </c>
       <c r="R28">
-        <v>247.458631226289</v>
+        <v>304.73600981913</v>
       </c>
       <c r="S28">
-        <v>0.002250610788840837</v>
+        <v>0.009605991813177606</v>
       </c>
       <c r="T28">
-        <v>0.002250610788840837</v>
+        <v>0.009605991813177608</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H29">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I29">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J29">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N29">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O29">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P29">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q29">
-        <v>1014.44842881379</v>
+        <v>236.66998943601</v>
       </c>
       <c r="R29">
-        <v>9130.035859324105</v>
+        <v>2130.02990492409</v>
       </c>
       <c r="S29">
-        <v>0.08303673670896633</v>
+        <v>0.06714352478615354</v>
       </c>
       <c r="T29">
-        <v>0.08303673670896633</v>
+        <v>0.06714352478615356</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H30">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I30">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J30">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N30">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O30">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P30">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q30">
-        <v>17.31311780156156</v>
+        <v>26.273340838728</v>
       </c>
       <c r="R30">
-        <v>155.818060214054</v>
+        <v>236.460067548552</v>
       </c>
       <c r="S30">
-        <v>0.001417149224806452</v>
+        <v>0.007453774414001741</v>
       </c>
       <c r="T30">
-        <v>0.001417149224806452</v>
+        <v>0.007453774414001743</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H31">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I31">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J31">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N31">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O31">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P31">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q31">
-        <v>29.46100918750399</v>
+        <v>57.07231908366601</v>
       </c>
       <c r="R31">
-        <v>265.149082687536</v>
+        <v>513.650871752994</v>
       </c>
       <c r="S31">
-        <v>0.002411503624628566</v>
+        <v>0.0161914769174124</v>
       </c>
       <c r="T31">
-        <v>0.002411503624628566</v>
+        <v>0.0161914769174124</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H32">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I32">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J32">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.27642966666667</v>
+        <v>20.125369</v>
       </c>
       <c r="N32">
-        <v>33.829289</v>
+        <v>60.376107</v>
       </c>
       <c r="O32">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="P32">
-        <v>0.04495771493187357</v>
+        <v>0.2123808897470127</v>
       </c>
       <c r="Q32">
-        <v>66.49720347339046</v>
+        <v>29.03083807404367</v>
       </c>
       <c r="R32">
-        <v>598.4748312605141</v>
+        <v>261.2775426663931</v>
       </c>
       <c r="S32">
-        <v>0.005443067010472979</v>
+        <v>0.008236079278291376</v>
       </c>
       <c r="T32">
-        <v>0.00544306701047298</v>
+        <v>0.00823607927829138</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H33">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I33">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J33">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>85.551776</v>
       </c>
       <c r="O33">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="P33">
-        <v>0.1136947441408982</v>
+        <v>0.3009396135182603</v>
       </c>
       <c r="Q33">
-        <v>168.1665215069085</v>
+        <v>41.13613612091378</v>
       </c>
       <c r="R33">
-        <v>1513.498693562176</v>
+        <v>370.2252250882241</v>
       </c>
       <c r="S33">
-        <v>0.01376511488707238</v>
+        <v>0.01167036505905598</v>
       </c>
       <c r="T33">
-        <v>0.01376511488707238</v>
+        <v>0.01167036505905599</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H34">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I34">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J34">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.329513</v>
+        <v>4.412681666666667</v>
       </c>
       <c r="N34">
-        <v>15.988539</v>
+        <v>13.238045</v>
       </c>
       <c r="O34">
-        <v>0.02124810186046602</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="P34">
-        <v>0.02124810186046603</v>
+        <v>0.04656656275653866</v>
       </c>
       <c r="Q34">
-        <v>31.42818435011267</v>
+        <v>6.365291833272778</v>
       </c>
       <c r="R34">
-        <v>282.853659151014</v>
+        <v>57.287626499455</v>
       </c>
       <c r="S34">
-        <v>0.002572524925858201</v>
+        <v>0.001805839984177661</v>
       </c>
       <c r="T34">
-        <v>0.002572524925858201</v>
+        <v>0.001805839984177662</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H35">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I35">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J35">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>196.6334516666667</v>
+        <v>30.84356166666667</v>
       </c>
       <c r="N35">
-        <v>589.900355</v>
+        <v>92.53068500000001</v>
       </c>
       <c r="O35">
-        <v>0.783952982230901</v>
+        <v>0.3254888429490918</v>
       </c>
       <c r="P35">
-        <v>0.7839529822309012</v>
+        <v>0.3254888429490919</v>
       </c>
       <c r="Q35">
-        <v>1159.549168634915</v>
+        <v>44.49182742297945</v>
       </c>
       <c r="R35">
-        <v>10435.94251771423</v>
+        <v>400.4264468068151</v>
       </c>
       <c r="S35">
-        <v>0.09491382339625286</v>
+        <v>0.01262237820889324</v>
       </c>
       <c r="T35">
-        <v>0.09491382339625286</v>
+        <v>0.01262237820889325</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H36">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I36">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J36">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.355851333333333</v>
+        <v>3.424022666666667</v>
       </c>
       <c r="N36">
-        <v>10.067554</v>
+        <v>10.272068</v>
       </c>
       <c r="O36">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191801</v>
       </c>
       <c r="P36">
-        <v>0.01337935960738765</v>
+        <v>0.03613334893191802</v>
       </c>
       <c r="Q36">
-        <v>19.78948439671156</v>
+        <v>4.939151555325779</v>
       </c>
       <c r="R36">
-        <v>178.105359570404</v>
+        <v>44.45236399793201</v>
       </c>
       <c r="S36">
-        <v>0.001619849919209218</v>
+        <v>0.001401242488191561</v>
       </c>
       <c r="T36">
-        <v>0.001619849919209218</v>
+        <v>0.001401242488191562</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H37">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I37">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J37">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.710511999999999</v>
+        <v>7.437840333333334</v>
       </c>
       <c r="N37">
-        <v>17.131536</v>
+        <v>22.313521</v>
       </c>
       <c r="O37">
-        <v>0.02276709722847351</v>
+        <v>0.07849074209717849</v>
       </c>
       <c r="P37">
-        <v>0.02276709722847351</v>
+        <v>0.0784907420971785</v>
       </c>
       <c r="Q37">
-        <v>33.67493875510399</v>
+        <v>10.72908220155322</v>
       </c>
       <c r="R37">
-        <v>303.074448795936</v>
+        <v>96.56173981397902</v>
       </c>
       <c r="S37">
-        <v>0.002756430927068263</v>
+        <v>0.00304385189879532</v>
       </c>
       <c r="T37">
-        <v>0.002756430927068264</v>
+        <v>0.003043851898795322</v>
       </c>
     </row>
   </sheetData>
